--- a/Design Files/Arduino Pinout map.xlsx
+++ b/Design Files/Arduino Pinout map.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="29">
   <si>
     <t>MK10</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>Old</t>
+  </si>
+  <si>
+    <t>Rev 2</t>
+  </si>
+  <si>
+    <t>Resistor to Ground</t>
   </si>
 </sst>
 </file>
@@ -148,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -157,6 +163,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D30"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -484,380 +494,706 @@
     <col min="4" max="4" width="2.81640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2">
         <v>25</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F2" s="4">
+        <v>24</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="F3" s="4">
+        <v>26</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="2">
+        <v>29</v>
+      </c>
+      <c r="F4" s="4">
+        <v>28</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4">
+        <v>30</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>33</v>
+      </c>
+      <c r="F6" s="4">
+        <v>32</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
+        <v>35</v>
+      </c>
+      <c r="F7" s="4">
+        <v>34</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>36</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2">
+        <v>37</v>
+      </c>
+      <c r="F8" s="4">
+        <v>36</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>38</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2">
+        <v>39</v>
+      </c>
+      <c r="F9" s="4">
+        <v>38</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>40</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>41</v>
+      </c>
+      <c r="F10" s="4">
+        <v>40</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>42</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>43</v>
+      </c>
+      <c r="F11" s="4">
+        <v>42</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>44</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45</v>
+      </c>
+      <c r="F12" s="4">
+        <v>44</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>46</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>47</v>
+      </c>
+      <c r="F13" s="4">
+        <v>46</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>48</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>49</v>
+      </c>
+      <c r="F14" s="4">
+        <v>48</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>22</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>24</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
         <v>26</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D20" s="4">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
         <v>28</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D21" s="4">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
         <v>30</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D22" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
         <v>32</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D23" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
         <v>34</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D24" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
         <v>36</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D25" s="4">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
         <v>38</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D26" s="4">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
         <v>40</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D27" s="4">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
         <v>42</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C28" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D28" s="4">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
         <v>44</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C29" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D29" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
         <v>46</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C30" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D30" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="1" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B32" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
         <v>22</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D33" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D34" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
         <v>26</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D35" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
         <v>28</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D36" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
         <v>30</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D37" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
         <v>32</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D38" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
         <v>34</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D39" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
         <v>36</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D40" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
         <v>38</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D41" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D42" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D43" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
         <v>44</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D44" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
         <v>46</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D45" s="1">
         <v>47</v>
       </c>
     </row>
